--- a/PCB/BOM/sensor_003.xlsx
+++ b/PCB/BOM/sensor_003.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="22527"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jmt87\Documents\miroculus\Miriam\PCB\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\STRAWLAB\Open_RT_LAMP\Miriam-anna_autofill\PCB\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8E5906A-5F21-4CA0-AB36-76DADCD9E9C9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2895" yWindow="2895" windowWidth="17280" windowHeight="8970"/>
   </bookViews>
   <sheets>
     <sheet name="LED_002" sheetId="1" r:id="rId1"/>
@@ -25,15 +24,15 @@
 </file>
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
-<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
-  <connection id="1" xr16:uid="{00000000-0015-0000-FFFF-FFFF00000000}" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
+<connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <connection id="1" name="MV255-v7.1" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
       </textFields>
     </textPr>
   </connection>
-  <connection id="2" xr16:uid="{00000000-0015-0000-FFFF-FFFF01000000}" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
+  <connection id="2" name="MV255-v7.11" type="6" refreshedVersion="2" background="1" saveData="1">
     <textPr sourceFile="P:\EAGLE 5.11 PROJEKTY\PROJEKTY\!   6\mv255-5.2\MV255-v7.1.csv" thousands=" " tab="0" comma="1">
       <textFields>
         <textField/>
@@ -94,9 +93,6 @@
     <t>R1,R2,R3,R4,R5,R7,R8,R9,R10,R11,R12,R13,R14,R15,R16,R17,R18,R19,R20,R21,R22,R23,R24,R25,R26,R27,R28,R29,R30,R31,R32,R33,R34,R35,R36,R37,R38,R39,R40,R41,R42,R43,R44,R45,R46,R47,R48,R49,R50,R51,R52,R53,R54,R55,R56,R57,R58,R59,R60,R61,R62,R63,R64,R65,R66,R67,R68,R69,R70,R71,R72,R73,R74,R75,R76,R77,R78,R79,R80,R81,R82,R83,R84,R85,R86,R87,R88,R89,R90,R91,R92,R93,R94,R95,R96,R97</t>
   </si>
   <si>
-    <t>3.9Mohm</t>
-  </si>
-  <si>
     <t>R0603</t>
   </si>
   <si>
@@ -124,9 +120,6 @@
     <t>PHD1,PHD2,PHD3,PHD4,PHD5,PHD6,PHD7,PHD8,PHD9,PHD10,PHD11,PHD12,PHD13,PHD14,PHD15,PHD16,PHD17,PHD18,PHD19,PHD20,PHD21,PHD22,PHD23,PHD24,PHD25,PHD26,PHD27,PHD28,PHD29,PHD30,PHD31,PHD32,PHD33,PHD34,PHD35,PHD36,PHD37,PHD38,PHD39,PHD40,PHD41,PHD42,PHD43,PHD44,PHD45,PHD46,PHD47,PHD48,PHD49,PHD50,PHD51,PHD52,PHD53,PHD54,PHD55,PHD56,PHD57,PHD58,PHD59,PHD60,PHD61,PHD62,PHD63,PHD64,PHD65,PHD66,PHD67,PHD68,PHD69,PHD70,PHD71,PHD72,PHD73,PHD74,PHD75,PHD76,PHD77,PHD78,PHD79,PHD80,PHD81,PHD82,PHD83,PHD84,PHD85,PHD86,PHD87,PHD88,PHD89,PHD90,PHD91,PHD92,PHD93,PHD94,PHD95,PHD96</t>
   </si>
   <si>
-    <t>CLS15-22C/L213G/TR8</t>
-  </si>
-  <si>
     <t>PD_0.2</t>
   </si>
   <si>
@@ -151,29 +144,35 @@
     <t>Link</t>
   </si>
   <si>
-    <t>http://www2.mouser.com/ProductDetail/Everlight/CLS15-22C-L213G-TR8/?qs=%2fha2pyFadugUC2hT8DY8w5bwBboEFqcsiT15XUpz3pXLSXn2ZMowvg%3d%3d</t>
-  </si>
-  <si>
-    <t>http://www2.mouser.com/ProductDetail/STMicroelectronics/LMV324LIDT/?qs=sGAEpiMZZMtCHixnSjNA6A1cCp3RWdULNBEJMAycdn8%3d</t>
-  </si>
-  <si>
-    <t>http://www2.mouser.com/ProductDetail/Texas-Instruments/CD74HC4067SM96G4/?qs=sGAEpiMZZMvjbjwkTuU2aWSBFuP5XThJD7CvNuH%252b6rk%3d</t>
-  </si>
-  <si>
     <t>J1, J2</t>
   </si>
   <si>
     <t>WE-FPC 0.5mm SMT ZIF Horizontal Bottom Contact, 6 Pins=&gt;Code : Con_FPC_ZIF_0.50_68710614522</t>
   </si>
   <si>
-    <t>https://www.digikey.fi/product-detail/en/wurth-electronics-inc/68710614522/732-2010-1-ND/2060634</t>
+    <t>100Mohm</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/782-TEMD6200FX01</t>
+  </si>
+  <si>
+    <t>TEMD6200FX01</t>
+  </si>
+  <si>
+    <t>https://de.farnell.com/wurth-elektronik/68710614522/ffc-05mm-90-unten-ziif-6kont/dp/1641913</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/511-LMV324LIDT</t>
+  </si>
+  <si>
+    <t>https://www.mouser.de/ProductDetail/595-CD74HC4067SM96G4</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="9">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -223,6 +222,12 @@
       <u/>
       <sz val="11"/>
       <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
     </font>
@@ -328,13 +333,13 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="3" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="3" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="好" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="差" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="好" xfId="1"/>
+    <cellStyle name="差" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -350,7 +355,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="MV255-v7.1_1" connectionId="2" xr16:uid="{00000000-0016-0000-0000-000000000000}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="MV255-v7.1_1" connectionId="2" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="6">
     <queryTableFields count="5">
       <queryTableField id="1"/>
@@ -691,22 +696,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:H23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9:H9"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" customWidth="1"/>
-    <col min="4" max="4" width="13.109375" style="2" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="20.44140625" style="2" customWidth="1"/>
-    <col min="7" max="7" width="24.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="15.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="20.42578125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="24.140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:8">
@@ -737,7 +742,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -769,68 +774,68 @@
         <v>96</v>
       </c>
       <c r="D4" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="9" t="s">
+      <c r="F4" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="9" t="s">
+      <c r="G4" s="9" t="s">
         <v>18</v>
-      </c>
-      <c r="G4" s="9" t="s">
-        <v>19</v>
       </c>
       <c r="H4" s="9"/>
     </row>
     <row r="5" spans="2:8">
       <c r="B5" s="9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="9">
         <v>6</v>
       </c>
       <c r="D5" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="9" t="s">
+      <c r="F5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="F5" s="9" t="s">
+      <c r="G5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="G5" s="9" t="s">
-        <v>24</v>
-      </c>
       <c r="H5" s="11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:8">
       <c r="B6" s="9" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C6" s="9">
         <v>96</v>
       </c>
-      <c r="D6" s="9" t="s">
+      <c r="D6" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="E6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F6" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="G6" s="9" t="s">
-        <v>28</v>
-      </c>
       <c r="H6" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="2:8">
       <c r="B7" s="9" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C7" s="9">
         <v>6</v>
@@ -849,27 +854,27 @@
     </row>
     <row r="8" spans="2:8">
       <c r="B8" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" s="9">
         <v>24</v>
       </c>
       <c r="D8" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="E8" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="G8" s="9" t="s">
-        <v>33</v>
-      </c>
       <c r="H8" s="11" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="9" spans="2:8">
       <c r="B9" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="9">
         <v>2</v>
@@ -879,11 +884,11 @@
         <v>68710614522</v>
       </c>
       <c r="F9" s="9" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="G9" s="12"/>
-      <c r="H9" s="13" t="s">
-        <v>40</v>
+      <c r="H9" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="2:8">
@@ -1013,12 +1018,12 @@
       <c r="H23" s="9"/>
     </row>
   </sheetData>
-  <autoFilter ref="B2:G23" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="B2:G23"/>
   <hyperlinks>
-    <hyperlink ref="H6" r:id="rId1" xr:uid="{59DA3256-F5CA-4A97-B26A-38D61473BFE4}"/>
-    <hyperlink ref="H8" r:id="rId2" xr:uid="{AD366070-9237-4CD2-A15A-8864FC9D988A}"/>
-    <hyperlink ref="H5" r:id="rId3" xr:uid="{F0D70B61-DFDB-4388-9E7E-BB1A6AC0959C}"/>
-    <hyperlink ref="H9" r:id="rId4" xr:uid="{4E52F59B-1D18-4F08-8BED-CE4D5C9F3FFC}"/>
+    <hyperlink ref="H6" r:id="rId1"/>
+    <hyperlink ref="H9" r:id="rId2"/>
+    <hyperlink ref="H8" r:id="rId3"/>
+    <hyperlink ref="H5" r:id="rId4"/>
   </hyperlinks>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
